--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H2">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I2">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J2">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N2">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O2">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P2">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q2">
-        <v>202.7059986951693</v>
+        <v>402.5840560049493</v>
       </c>
       <c r="R2">
-        <v>1824.353988256524</v>
+        <v>3623.256504044544</v>
       </c>
       <c r="S2">
-        <v>0.01052373780948158</v>
+        <v>0.02216840328852567</v>
       </c>
       <c r="T2">
-        <v>0.01052373780948158</v>
+        <v>0.02216840328852568</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H3">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I3">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J3">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N3">
         <v>0.150717</v>
       </c>
       <c r="O3">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P3">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q3">
-        <v>0.07305695093200001</v>
+        <v>0.198525236224</v>
       </c>
       <c r="R3">
-        <v>0.657512558388</v>
+        <v>1.786727126016</v>
       </c>
       <c r="S3">
-        <v>3.792843831546912E-06</v>
+        <v>1.093184748357087E-05</v>
       </c>
       <c r="T3">
-        <v>3.792843831546912E-06</v>
+        <v>1.093184748357087E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H4">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I4">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J4">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N4">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O4">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P4">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q4">
-        <v>6.137690806870666</v>
+        <v>13.610282278912</v>
       </c>
       <c r="R4">
-        <v>55.239217261836</v>
+        <v>122.492540510208</v>
       </c>
       <c r="S4">
-        <v>0.0003186459661921768</v>
+        <v>0.0007494539883762465</v>
       </c>
       <c r="T4">
-        <v>0.0003186459661921768</v>
+        <v>0.0007494539883762467</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H5">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I5">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J5">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N5">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O5">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P5">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q5">
-        <v>1.156487602098667</v>
+        <v>0.2793542242986667</v>
       </c>
       <c r="R5">
-        <v>10.408388418888</v>
+        <v>2.514188018688</v>
       </c>
       <c r="S5">
-        <v>6.004051376251881E-05</v>
+        <v>1.538271824786317E-05</v>
       </c>
       <c r="T5">
-        <v>6.00405137625188E-05</v>
+        <v>1.538271824786317E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H6">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I6">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J6">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N6">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O6">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P6">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q6">
-        <v>1.203811242182667</v>
+        <v>5.542589289813333</v>
       </c>
       <c r="R6">
-        <v>10.834301179644</v>
+        <v>49.88330360832001</v>
       </c>
       <c r="S6">
-        <v>6.249738027678125E-05</v>
+        <v>0.0003052042245749904</v>
       </c>
       <c r="T6">
-        <v>6.249738027678124E-05</v>
+        <v>0.0003052042245749904</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H7">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I7">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J7">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N7">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O7">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P7">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q7">
-        <v>8.869591398484001</v>
+        <v>18.375650610176</v>
       </c>
       <c r="R7">
-        <v>79.826322586356</v>
+        <v>165.380855491584</v>
       </c>
       <c r="S7">
-        <v>0.0004604760340380747</v>
+        <v>0.001011860324171448</v>
       </c>
       <c r="T7">
-        <v>0.0004604760340380746</v>
+        <v>0.001011860324171448</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I8">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J8">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N8">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O8">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P8">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q8">
-        <v>3177.897873144782</v>
+        <v>2322.606984381183</v>
       </c>
       <c r="R8">
-        <v>28601.08085830304</v>
+        <v>20903.46285943065</v>
       </c>
       <c r="S8">
-        <v>0.1649845797241414</v>
+        <v>0.1278950011618828</v>
       </c>
       <c r="T8">
-        <v>0.1649845797241414</v>
+        <v>0.1278950011618829</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I9">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J9">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,16 +995,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N9">
         <v>0.150717</v>
       </c>
       <c r="O9">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P9">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q9">
         <v>1.14534118615</v>
@@ -1013,10 +1013,10 @@
         <v>10.30807067535</v>
       </c>
       <c r="S9">
-        <v>5.946183350779388E-05</v>
+        <v>6.306853174835966E-05</v>
       </c>
       <c r="T9">
-        <v>5.946183350779386E-05</v>
+        <v>6.306853174835967E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I10">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J10">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N10">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O10">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P10">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q10">
-        <v>96.22287789571665</v>
+        <v>78.52108450119999</v>
       </c>
       <c r="R10">
-        <v>866.0059010614499</v>
+        <v>706.6897605107999</v>
       </c>
       <c r="S10">
-        <v>0.004995532173525237</v>
+        <v>0.004323785410551888</v>
       </c>
       <c r="T10">
-        <v>0.004995532173525237</v>
+        <v>0.004323785410551889</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I11">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J11">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N11">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O11">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P11">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q11">
-        <v>18.13068934656667</v>
+        <v>1.611663608616666</v>
       </c>
       <c r="R11">
-        <v>163.1762041191</v>
+        <v>14.50497247755</v>
       </c>
       <c r="S11">
-        <v>0.0009412776248193764</v>
+        <v>8.874670595701789E-05</v>
       </c>
       <c r="T11">
-        <v>0.0009412776248193762</v>
+        <v>8.874670595701792E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I12">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J12">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N12">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O12">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P12">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q12">
-        <v>18.87259977911666</v>
+        <v>31.97656838133333</v>
       </c>
       <c r="R12">
-        <v>169.85339801205</v>
+        <v>287.789115432</v>
       </c>
       <c r="S12">
-        <v>0.0009797948414806182</v>
+        <v>0.001760798653317261</v>
       </c>
       <c r="T12">
-        <v>0.000979794841480618</v>
+        <v>0.001760798653317262</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I13">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J13">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N13">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O13">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P13">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q13">
-        <v>139.05190681255</v>
+        <v>106.01367295385</v>
       </c>
       <c r="R13">
-        <v>1251.46716131295</v>
+        <v>954.12305658465</v>
       </c>
       <c r="S13">
-        <v>0.007219055275242898</v>
+        <v>0.005837672458916061</v>
       </c>
       <c r="T13">
-        <v>0.007219055275242897</v>
+        <v>0.005837672458916062</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H14">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I14">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J14">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N14">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O14">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P14">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q14">
-        <v>1644.000150859688</v>
+        <v>2390.228864632712</v>
       </c>
       <c r="R14">
-        <v>14796.00135773719</v>
+        <v>21512.05978169441</v>
       </c>
       <c r="S14">
-        <v>0.08535034314605032</v>
+        <v>0.1316186188516154</v>
       </c>
       <c r="T14">
-        <v>0.08535034314605031</v>
+        <v>0.1316186188516154</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H15">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I15">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J15">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,28 +1367,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N15">
         <v>0.150717</v>
       </c>
       <c r="O15">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P15">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q15">
-        <v>0.5925115148376667</v>
+        <v>1.178687389385333</v>
       </c>
       <c r="R15">
-        <v>5.332603633539001</v>
+        <v>10.608186504468</v>
       </c>
       <c r="S15">
-        <v>3.076098325352104E-05</v>
+        <v>6.490474972678086E-05</v>
       </c>
       <c r="T15">
-        <v>3.076098325352104E-05</v>
+        <v>6.490474972678088E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H16">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I16">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J16">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N16">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O16">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P16">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q16">
-        <v>49.77832268101477</v>
+        <v>80.80719808350933</v>
       </c>
       <c r="R16">
-        <v>448.004904129133</v>
+        <v>727.264782751584</v>
       </c>
       <c r="S16">
-        <v>0.002584304459970843</v>
+        <v>0.004449670892353945</v>
       </c>
       <c r="T16">
-        <v>0.002584304459970842</v>
+        <v>0.004449670892353947</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H17">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I17">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J17">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N17">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O17">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P17">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q17">
-        <v>9.379425397157112</v>
+        <v>1.658586624124889</v>
       </c>
       <c r="R17">
-        <v>84.414828574414</v>
+        <v>14.927279617124</v>
       </c>
       <c r="S17">
-        <v>0.0004869447096714183</v>
+        <v>9.133053488860188E-05</v>
       </c>
       <c r="T17">
-        <v>0.0004869447096714182</v>
+        <v>9.133053488860192E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H18">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I18">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J18">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N18">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O18">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P18">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q18">
-        <v>9.763232842117443</v>
+        <v>32.90755485148444</v>
       </c>
       <c r="R18">
-        <v>87.86909557905699</v>
+        <v>296.16799366336</v>
       </c>
       <c r="S18">
-        <v>0.0005068705576783319</v>
+        <v>0.001812063682864823</v>
       </c>
       <c r="T18">
-        <v>0.0005068705576783318</v>
+        <v>0.001812063682864824</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H19">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I19">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J19">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N19">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O19">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P19">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q19">
-        <v>71.93477100349367</v>
+        <v>109.1002235178147</v>
       </c>
       <c r="R19">
-        <v>647.4129390314429</v>
+        <v>981.9020116603322</v>
       </c>
       <c r="S19">
-        <v>0.003734584443967451</v>
+        <v>0.006007634226283107</v>
       </c>
       <c r="T19">
-        <v>0.00373458444396745</v>
+        <v>0.006007634226283109</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H20">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I20">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J20">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N20">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O20">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P20">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q20">
-        <v>1117.932668545864</v>
+        <v>1349.676294656811</v>
       </c>
       <c r="R20">
-        <v>10061.39401691277</v>
+        <v>12147.0866519113</v>
       </c>
       <c r="S20">
-        <v>0.05803888571705657</v>
+        <v>0.07432030146903625</v>
       </c>
       <c r="T20">
-        <v>0.05803888571705657</v>
+        <v>0.07432030146903626</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H21">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I21">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J21">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N21">
         <v>0.150717</v>
       </c>
       <c r="O21">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P21">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q21">
-        <v>0.402912358968</v>
+        <v>0.6655623868506667</v>
       </c>
       <c r="R21">
-        <v>3.626211230712001</v>
+        <v>5.990061481656</v>
       </c>
       <c r="S21">
-        <v>2.091770373483281E-05</v>
+        <v>3.664937839763313E-05</v>
       </c>
       <c r="T21">
-        <v>2.091770373483281E-05</v>
+        <v>3.664937839763313E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H22">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I22">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J22">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N22">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O22">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P22">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q22">
-        <v>33.849639905096</v>
+        <v>45.62891918205867</v>
       </c>
       <c r="R22">
-        <v>304.646759145864</v>
+        <v>410.6602726385281</v>
       </c>
       <c r="S22">
-        <v>0.001757346785983816</v>
+        <v>0.0025125691565763</v>
       </c>
       <c r="T22">
-        <v>0.001757346785983816</v>
+        <v>0.002512569156576301</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H23">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I23">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J23">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N23">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O23">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P23">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q23">
-        <v>6.378080961968</v>
+        <v>0.9365442290231112</v>
       </c>
       <c r="R23">
-        <v>57.40272865771201</v>
+        <v>8.428898061208001</v>
       </c>
       <c r="S23">
-        <v>0.0003311261245521141</v>
+        <v>5.157106908940884E-05</v>
       </c>
       <c r="T23">
-        <v>0.0003311261245521141</v>
+        <v>5.157106908940885E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H24">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I24">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J24">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N24">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O24">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P24">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q24">
-        <v>6.639072958183999</v>
+        <v>18.58171297123556</v>
       </c>
       <c r="R24">
-        <v>59.751656623656</v>
+        <v>167.23541674112</v>
       </c>
       <c r="S24">
-        <v>0.0003446758535005937</v>
+        <v>0.001023207205535517</v>
       </c>
       <c r="T24">
-        <v>0.0003446758535005936</v>
+        <v>0.001023207205535518</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H25">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I25">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J25">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N25">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O25">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P25">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q25">
-        <v>48.916194117816</v>
+        <v>61.60497331554934</v>
       </c>
       <c r="R25">
-        <v>440.245747060344</v>
+        <v>554.4447598399441</v>
       </c>
       <c r="S25">
-        <v>0.002539545967298839</v>
+        <v>0.003392295031726669</v>
       </c>
       <c r="T25">
-        <v>0.002539545967298838</v>
+        <v>0.003392295031726669</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H26">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I26">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J26">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N26">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O26">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P26">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q26">
-        <v>9940.160044273405</v>
+        <v>8473.453654740615</v>
       </c>
       <c r="R26">
-        <v>89461.44039846065</v>
+        <v>76261.08289266554</v>
       </c>
       <c r="S26">
-        <v>0.5160559567234507</v>
+        <v>0.4665930879851148</v>
       </c>
       <c r="T26">
-        <v>0.5160559567234508</v>
+        <v>0.466593087985115</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H27">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I27">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J27">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2111,28 +2111,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N27">
         <v>0.150717</v>
       </c>
       <c r="O27">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P27">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q27">
-        <v>3.582517484856333</v>
+        <v>4.178492325636999</v>
       </c>
       <c r="R27">
-        <v>32.242657363707</v>
+        <v>37.606430930733</v>
       </c>
       <c r="S27">
-        <v>0.0001859909176403171</v>
+        <v>0.0002300898449182293</v>
       </c>
       <c r="T27">
-        <v>0.0001859909176403171</v>
+        <v>0.0002300898449182294</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H28">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I28">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J28">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N28">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O28">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P28">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q28">
-        <v>300.9759420800698</v>
+        <v>286.464638621656</v>
       </c>
       <c r="R28">
-        <v>2708.783478720629</v>
+        <v>2578.181747594904</v>
       </c>
       <c r="S28">
-        <v>0.0156255459720041</v>
+        <v>0.01577425519501588</v>
       </c>
       <c r="T28">
-        <v>0.0156255459720041</v>
+        <v>0.01577425519501589</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H29">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I29">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J29">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N29">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O29">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P29">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q29">
-        <v>56.71105901195356</v>
+        <v>5.879753650307666</v>
       </c>
       <c r="R29">
-        <v>510.399531107582</v>
+        <v>52.917782852769</v>
       </c>
       <c r="S29">
-        <v>0.002944226218175849</v>
+        <v>0.0003237702740905339</v>
       </c>
       <c r="T29">
-        <v>0.002944226218175849</v>
+        <v>0.000323770274090534</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H30">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I30">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J30">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N30">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O30">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P30">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q30">
-        <v>59.03168375587121</v>
+        <v>116.6585530995733</v>
       </c>
       <c r="R30">
-        <v>531.2851538028409</v>
+        <v>1049.92697789616</v>
       </c>
       <c r="S30">
-        <v>0.003064704381211913</v>
+        <v>0.006423835752043379</v>
       </c>
       <c r="T30">
-        <v>0.003064704381211913</v>
+        <v>0.006423835752043382</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H31">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I31">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J31">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N31">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O31">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P31">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q31">
-        <v>434.9410406981843</v>
+        <v>386.764506687563</v>
       </c>
       <c r="R31">
-        <v>3914.469366283659</v>
+        <v>3480.880560188067</v>
       </c>
       <c r="S31">
-        <v>0.02258051317846782</v>
+        <v>0.02129729539470926</v>
       </c>
       <c r="T31">
-        <v>0.02258051317846782</v>
+        <v>0.02129729539470926</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H32">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I32">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J32">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N32">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O32">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P32">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q32">
-        <v>1653.117349586393</v>
+        <v>1655.165713517049</v>
       </c>
       <c r="R32">
-        <v>14878.05614627754</v>
+        <v>14896.49142165344</v>
       </c>
       <c r="S32">
-        <v>0.08582367402710168</v>
+        <v>0.0911421614921958</v>
       </c>
       <c r="T32">
-        <v>0.08582367402710168</v>
+        <v>0.09114216149219583</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H33">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I33">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J33">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2483,28 +2483,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M33">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N33">
         <v>0.150717</v>
       </c>
       <c r="O33">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P33">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q33">
-        <v>0.5957974301253333</v>
+        <v>0.8162075953196666</v>
       </c>
       <c r="R33">
-        <v>5.362176871128</v>
+        <v>7.345868357876999</v>
       </c>
       <c r="S33">
-        <v>3.093157569367656E-05</v>
+        <v>4.494469880342624E-05</v>
       </c>
       <c r="T33">
-        <v>3.093157569367656E-05</v>
+        <v>4.494469880342625E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H34">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I34">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J34">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N34">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O34">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P34">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q34">
-        <v>50.05438035651288</v>
+        <v>55.95669337453067</v>
       </c>
       <c r="R34">
-        <v>450.4894232086159</v>
+        <v>503.610240370776</v>
       </c>
       <c r="S34">
-        <v>0.00259863634267751</v>
+        <v>0.003081270921975405</v>
       </c>
       <c r="T34">
-        <v>0.00259863634267751</v>
+        <v>0.003081270921975405</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H35">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I35">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J35">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N35">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O35">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P35">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q35">
-        <v>9.431441259347555</v>
+        <v>1.148524207773444</v>
       </c>
       <c r="R35">
-        <v>84.882971334128</v>
+        <v>10.336717869961</v>
       </c>
       <c r="S35">
-        <v>0.0004896451788195935</v>
+        <v>6.32438057215141E-05</v>
       </c>
       <c r="T35">
-        <v>0.0004896451788195934</v>
+        <v>6.324380572151413E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H36">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I36">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J36">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N36">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O36">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P36">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q36">
-        <v>9.817377200918219</v>
+        <v>22.78754863678222</v>
       </c>
       <c r="R36">
-        <v>88.35639480826397</v>
+        <v>205.08793773104</v>
       </c>
       <c r="S36">
-        <v>0.000509681530414954</v>
+        <v>0.001254802719089479</v>
       </c>
       <c r="T36">
-        <v>0.0005096815304149538</v>
+        <v>0.00125480271908948</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H37">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I37">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J37">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N37">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O37">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P37">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q37">
-        <v>72.33370259863732</v>
+        <v>75.54881123548034</v>
       </c>
       <c r="R37">
-        <v>651.0033233877359</v>
+        <v>679.9393011193231</v>
       </c>
       <c r="S37">
-        <v>0.003755295481323201</v>
+        <v>0.004160116354474401</v>
       </c>
       <c r="T37">
-        <v>0.0037552954813232</v>
+        <v>0.004160116354474401</v>
       </c>
     </row>
   </sheetData>
